--- a/7. 성장 연출시스템/캐릭터 성장UI_텍스트_좌표.xlsx
+++ b/7. 성장 연출시스템/캐릭터 성장UI_텍스트_좌표.xlsx
@@ -16,44 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
-  <si>
-    <t>356, 68</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>356, 92</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>힘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>459, 68</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>459, 92</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>592, 68</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>592, 92</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>695, 92</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>695, 64</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>356, 136</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -70,54 +38,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>356, 204</t>
-  </si>
-  <si>
-    <t>356, 272</t>
-  </si>
-  <si>
-    <t>356, 340</t>
-  </si>
-  <si>
-    <t>356, 408</t>
-  </si>
-  <si>
-    <t>356, 228</t>
-  </si>
-  <si>
-    <t>356, 296</t>
-  </si>
-  <si>
-    <t>356, 364</t>
-  </si>
-  <si>
-    <t>356, 432</t>
-  </si>
-  <si>
-    <t>459, 204</t>
-  </si>
-  <si>
-    <t>459, 272</t>
-  </si>
-  <si>
-    <t>459, 340</t>
-  </si>
-  <si>
-    <t>459, 408</t>
-  </si>
-  <si>
-    <t>459, 228</t>
-  </si>
-  <si>
-    <t>459, 296</t>
-  </si>
-  <si>
-    <t>459, 364</t>
-  </si>
-  <si>
-    <t>459, 432</t>
-  </si>
-  <si>
     <t>592, 136</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -134,66 +54,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>592, 204</t>
-  </si>
-  <si>
-    <t>592, 272</t>
-  </si>
-  <si>
-    <t>592, 340</t>
-  </si>
-  <si>
-    <t>592, 408</t>
-  </si>
-  <si>
-    <t>695, 208</t>
-  </si>
-  <si>
-    <t>695, 280</t>
-  </si>
-  <si>
-    <t>695, 352</t>
-  </si>
-  <si>
-    <t>695, 424</t>
-  </si>
-  <si>
-    <t>695, 228</t>
-  </si>
-  <si>
-    <t>695, 296</t>
-  </si>
-  <si>
-    <t>695, 364</t>
-  </si>
-  <si>
-    <t>695, 432</t>
-  </si>
-  <si>
-    <t>592, 228</t>
-  </si>
-  <si>
-    <t>592, 296</t>
-  </si>
-  <si>
-    <t>592, 364</t>
-  </si>
-  <si>
-    <t>592, 432</t>
-  </si>
-  <si>
     <t>성별</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>264, 80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>498, 80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>264, 148</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -202,24 +66,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>264, 216</t>
-  </si>
-  <si>
-    <t>264, 284</t>
-  </si>
-  <si>
-    <t>264, 352</t>
-  </si>
-  <si>
-    <t>498, 216</t>
-  </si>
-  <si>
-    <t>498, 284</t>
-  </si>
-  <si>
-    <t>498, 352</t>
-  </si>
-  <si>
     <t>캐릭터 성장UI 텍스트 좌표</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -234,6 +80,166 @@
   <si>
     <t>지능</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>356, 89</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>592, 89</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>459, 89</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>695, 89</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>356, 65</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>592, 65</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>459, 65</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>695, 65</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>264, 77</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>498, 77</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>356, 207</t>
+  </si>
+  <si>
+    <t>356, 278</t>
+  </si>
+  <si>
+    <t>356, 349</t>
+  </si>
+  <si>
+    <t>356, 420</t>
+  </si>
+  <si>
+    <t>592, 207</t>
+  </si>
+  <si>
+    <t>592, 278</t>
+  </si>
+  <si>
+    <t>592, 349</t>
+  </si>
+  <si>
+    <t>592, 420</t>
+  </si>
+  <si>
+    <t>356, 231</t>
+  </si>
+  <si>
+    <t>356, 302</t>
+  </si>
+  <si>
+    <t>356, 373</t>
+  </si>
+  <si>
+    <t>356, 444</t>
+  </si>
+  <si>
+    <t>592, 231</t>
+  </si>
+  <si>
+    <t>592, 302</t>
+  </si>
+  <si>
+    <t>592, 373</t>
+  </si>
+  <si>
+    <t>592, 444</t>
+  </si>
+  <si>
+    <t>459, 231</t>
+  </si>
+  <si>
+    <t>459, 302</t>
+  </si>
+  <si>
+    <t>459, 373</t>
+  </si>
+  <si>
+    <t>459, 444</t>
+  </si>
+  <si>
+    <t>695, 231</t>
+  </si>
+  <si>
+    <t>695, 302</t>
+  </si>
+  <si>
+    <t>695, 373</t>
+  </si>
+  <si>
+    <t>695, 444</t>
+  </si>
+  <si>
+    <t>459, 207</t>
+  </si>
+  <si>
+    <t>459, 278</t>
+  </si>
+  <si>
+    <t>459, 349</t>
+  </si>
+  <si>
+    <t>459, 420</t>
+  </si>
+  <si>
+    <t>695, 207</t>
+  </si>
+  <si>
+    <t>695, 278</t>
+  </si>
+  <si>
+    <t>695, 349</t>
+  </si>
+  <si>
+    <t>695, 420</t>
+  </si>
+  <si>
+    <t>264, 219</t>
+  </si>
+  <si>
+    <t>264, 290</t>
+  </si>
+  <si>
+    <t>264, 361</t>
+  </si>
+  <si>
+    <t>498, 219</t>
+  </si>
+  <si>
+    <t>498, 290</t>
+  </si>
+  <si>
+    <t>498, 361</t>
+  </si>
+  <si>
+    <t>264, 432</t>
+  </si>
+  <si>
+    <t>498, 432</t>
   </si>
 </sst>
 </file>
@@ -614,7 +620,7 @@
   <dimension ref="A2:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="C2" sqref="C2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -626,7 +632,7 @@
   <sheetData>
     <row r="2" spans="3:13" ht="26.25" x14ac:dyDescent="0.3">
       <c r="C2" s="3" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -638,141 +644,147 @@
     </row>
     <row r="5" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C5" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="2" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>40</v>
+        <v>57</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -793,11 +805,11 @@
     </row>
     <row r="14" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C14" s="2" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="2" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -805,17 +817,17 @@
     </row>
     <row r="15" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -823,17 +835,17 @@
     </row>
     <row r="16" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C16" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -841,17 +853,17 @@
     </row>
     <row r="17" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -859,17 +871,17 @@
     </row>
     <row r="18" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -877,32 +889,32 @@
     </row>
     <row r="19" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/7. 성장 연출시스템/캐릭터 성장UI_텍스트_좌표.xlsx
+++ b/7. 성장 연출시스템/캐릭터 성장UI_텍스트_좌표.xlsx
@@ -33,18 +33,6 @@
     <t>자식2 마력</t>
   </si>
   <si>
-    <t>부모1 힘</t>
-  </si>
-  <si>
-    <t>부모2 힘</t>
-  </si>
-  <si>
-    <t>부모1 마력</t>
-  </si>
-  <si>
-    <t>부모2 마력</t>
-  </si>
-  <si>
     <t>346, 64</t>
   </si>
   <si>
@@ -273,18 +261,6 @@
     <t>자식2 지능</t>
   </si>
   <si>
-    <t>부모1 민첩</t>
-  </si>
-  <si>
-    <t>부모2 민첩</t>
-  </si>
-  <si>
-    <t>부모1 지능</t>
-  </si>
-  <si>
-    <t>부모2 지능</t>
-  </si>
-  <si>
     <t>346, 88</t>
   </si>
   <si>
@@ -502,6 +478,38 @@
   </si>
   <si>
     <t>캐릭터 성장UI 텍스트 좌표</t>
+  </si>
+  <si>
+    <t>부 힘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부 민첩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모 마력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모 지능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모 힘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부 마력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모 민첩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부 지능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -887,15 +895,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:S19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:H2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="4:19" ht="26.25" x14ac:dyDescent="0.3">
       <c r="D2" s="5" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -925,569 +933,569 @@
       <c r="K5" s="1"/>
       <c r="L5" s="2"/>
       <c r="M5" s="3" t="s">
-        <v>5</v>
+        <v>154</v>
       </c>
       <c r="N5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>6</v>
+        <v>158</v>
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="3" t="s">
-        <v>7</v>
+        <v>159</v>
       </c>
       <c r="R5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>8</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D7" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D8" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D9" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D10" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D11" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D13" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>1</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="3" t="s">
-        <v>85</v>
+        <v>155</v>
       </c>
       <c r="N13" s="3" t="s">
         <v>1</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>86</v>
+        <v>160</v>
       </c>
       <c r="P13" s="1"/>
       <c r="Q13" s="3" t="s">
-        <v>87</v>
+        <v>161</v>
       </c>
       <c r="R13" s="3" t="s">
         <v>1</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>88</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D14" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="P14" s="1"/>
       <c r="Q14" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D15" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="P15" s="1"/>
       <c r="Q15" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D16" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="P16" s="1"/>
       <c r="Q16" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D17" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="P17" s="1"/>
       <c r="Q17" s="2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D18" s="2" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="2" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="P18" s="1"/>
       <c r="Q18" s="2" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D19" s="2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="2" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="2" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="P19" s="1"/>
       <c r="Q19" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
